--- a/Payal.xlsx
+++ b/Payal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Payal M\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7EF9B7-3DA9-468C-9BC4-8BF8C0FB2155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF39AF1-7F03-4AE7-9647-A750AAAAC279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FA550835-A2D5-47A0-8973-EDE45623BAF7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>C Programming:</t>
   </si>
@@ -175,6 +175,92 @@
     <t>Decision Making : To make decisions based on our requirements/ some conditions                                                      Loops : To check for a condition multiple times                                Switch case : to check for multiples cases for one condition</t>
   </si>
   <si>
+    <t>1. to check if the entered character is a vowel                                                           2. to make patterns / pattern related series                                                            3. to blink an LED infinitely until a switch is pressed                                        4. conversion of lowercase to uppercase                                                                 5. to perform a chosen operation on given operands</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>To maintain large sets of similar data under a single variable name, this avoid the confusion of using multiple variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An array is the collection of similar data stored at contagious memory locations ; it is about storing similar datatypes under a single variable.                                                                                            We use it where we need to create a datatbase or store large amount of similar data, eg. names, phonenumber etc                                                                      </t>
+  </si>
+  <si>
+    <t>To store array of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Handling enables us to create, read, write and delete a file in the local file system using C programming </t>
+  </si>
+  <si>
+    <t>Files are used to store data in a storage device permanently. File handling provides a way to store the output of a program in a file and to perform various operations on it.</t>
+  </si>
+  <si>
+    <r>
+      <t>The storage class in the C language is to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> determine the visibility, lifetime, initial value, and memory location of any given variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>To increase reusability of the code (while performing the same task for multiple times) and to reduce execution time of the code</t>
+  </si>
+  <si>
+    <t>Function is a group/block of code that only runs when it is called, it takes input in the form of arguments and it gives output as a return value; and is used to perform a specific task. We use functions wherever we need to perform a task repeatedly.</t>
+  </si>
+  <si>
+    <t>Preprocessor is a compilation process, which runs when the developer runs the program.It is a pre-process of execution of a program using c language.</t>
+  </si>
+  <si>
+    <t>auto : default storage class for all variables declared inside a function or a block                                                                            extern : to access functions/variables declared in other files                  static : to give variable a lifetime throughout the program but scope within the function where it is declared                                         register : to make the variables accessible to the compiler from CPU registers (scope &amp; visibility within the block/function &amp; memory is CPU registers for faster access)</t>
+  </si>
+  <si>
+    <r>
+      <t>A string is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an one dimensional sequence characters terminated with a null character '\0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>#include directive is used to add the content/piece of code from a reserved header file into our code file before the compilation of our C program</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -182,12 +268,23 @@
       <rPr>
         <b/>
         <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if-else</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
         <color rgb="FFFFC000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">if-else </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -208,7 +305,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> for </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -224,7 +343,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFFC000"/>
+        <color theme="7" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -245,7 +364,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFFC000"/>
+        <color theme="7" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -260,13 +379,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : this is used when we have to 'do' a work 'while' the condition is true , it will be executed atleast once even when the condition is 'false'                                                                                   5. </t>
+      <t xml:space="preserve"> : this is used when we have to 'do' a work 'while' the condition is true , it will be executed atleast once even when the condition is 'false'                                                                                   5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FFFFC000"/>
+        <color theme="7" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -285,91 +414,17 @@
     </r>
   </si>
   <si>
-    <t>1. to check if the entered character is a vowel                                                           2. to make patterns / pattern related series                                                            3. to blink an LED infinitely until a switch is pressed                                        4. conversion of lowercase to uppercase                                                                 5. to perform a chosen operation on given operands</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>To maintain large sets of similar data under a single variable name, this avoid the confusion of using multiple variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An array is the collection of similar data stored at contagious memory locations ; it is about storing similar datatypes under a single variable.                                                                                            We use it where we need to create a datatbase or store large amount of similar data, eg. names, phonenumber etc                                                                      </t>
-  </si>
-  <si>
-    <t>To store array of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Handling enables us to create, read, write and delete a file in the local file system using C programming </t>
-  </si>
-  <si>
-    <t>Files are used to store data in a storage device permanently. File handling provides a way to store the output of a program in a file and to perform various operations on it.</t>
-  </si>
-  <si>
-    <r>
-      <t>The storage class in the C language is to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> determine the visibility, lifetime, initial value, and memory location of any given variable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>To increase reusability of the code (while performing the same task for multiple times) and to reduce execution time of the code</t>
-  </si>
-  <si>
-    <t>Function is a group/block of code that only runs when it is called, it takes input in the form of arguments and it gives output as a return value; and is used to perform a specific task. We use functions wherever we need to perform a task repeatedly.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#include directive is used </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to add the content/piece of code from a reserved header file into our code file before the compilation of our C program</t>
-    </r>
-  </si>
-  <si>
-    <t>Preprocessor is a compilation process, which runs when the developer runs the program.It is a pre-process of execution of a program using c language.</t>
-  </si>
-  <si>
-    <t>auto : default storage class for all variables declared inside a function or a block                                                                        extern : to access functions/variables declared in other files              static : to give variable a lifetime throughout the program but scope within the function where it is declared</t>
+    <t xml:space="preserve">Pointers are special variable, capable of storing the initial address of the object. Pointers are needed for more efficient in handling of arrays, to return multiple values from a function via function arguments, to save data storage space in memory while using arrays, to support dynamic memory management and to reduce length and complexity of the code.                     </t>
+  </si>
+  <si>
+    <t>Pointers contain memory addresses as their values. Pointers are used to manipulate the data in the computer's memory. This helps in reducing the code and improving the performance. Pointers are especially useful for implementing data structures.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,12 +465,35 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF4D5156"/>
-      <name val="Arial"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF040C28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,7 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -531,12 +615,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -545,12 +623,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -560,19 +632,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -891,15 +984,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB1336-DA1B-4FB4-9838-B5D8F09586B4}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="3"/>
-    <col min="3" max="3" width="1.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" style="27" customWidth="1"/>
     <col min="4" max="4" width="42.44140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="52.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="31.44140625" style="4" customWidth="1"/>
@@ -908,11 +1001,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="69" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
@@ -933,116 +1026,156 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="20">
         <v>4</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <v>3</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="E3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="E5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:33" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19">
-        <v>3</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:33" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19">
-        <v>3</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>55</v>
+      <c r="F6" s="21"/>
+      <c r="G6" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="G7" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="15">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="G8" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:33" s="14" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="G9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="12" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>3</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="3"/>
@@ -1070,193 +1203,288 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
     </row>
-    <row r="11" spans="1:33" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:33" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:33" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20">
+        <v>3</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-    </row>
-    <row r="12" spans="1:33" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19">
-        <v>3</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>56</v>
+      <c r="F12" s="21"/>
+      <c r="G12" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="15">
+        <v>2</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="G13" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="G14" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="G15" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="G16" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="G17" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="G18" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="15">
+        <v>2</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="G19" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="26"/>
+      <c r="G20" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>2</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="G21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:3" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="G22" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="15">
         <v>3</v>
       </c>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:3" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="26"/>
+      <c r="G23" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="15">
         <v>3</v>
       </c>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="26"/>
+      <c r="G24" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="15">
+        <v>3</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="G25" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="15">
+        <v>2</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="G26" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="15">
+        <v>2</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="G27" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
+        <v>2</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="G28" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="15">
+        <v>2</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="G29" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="G30" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -1265,7 +1493,7 @@
       <c r="B33" s="9">
         <v>0</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
@@ -1274,7 +1502,7 @@
       <c r="B34" s="9">
         <v>1</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -1283,7 +1511,7 @@
       <c r="B35" s="9">
         <v>2</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
@@ -1292,7 +1520,7 @@
       <c r="B36" s="9">
         <v>3</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -1301,7 +1529,7 @@
       <c r="B37" s="9">
         <v>4</v>
       </c>
-      <c r="C37" s="24"/>
+      <c r="C37" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
